--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2447311.112242274</v>
+        <v>-2450243.621211589</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>29.94054416507964</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,13 +716,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>92.31206727680525</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>61.44850904176957</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>85.23654226662079</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>42.42514734134156</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>112.7863412952394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>281.1607733806433</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>27.77238941128203</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>47.14167849255895</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>102.4980067434912</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>227.5389050092816</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>31.44721479321883</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,7 +1190,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>123.6064608052457</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>363.7358473936652</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1421,7 +1421,7 @@
         <v>84.61259060081963</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374742</v>
+        <v>197.6600124601322</v>
       </c>
       <c r="U11" t="n">
         <v>250.9088959876463</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
@@ -1546,7 +1546,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>201.660423408704</v>
+        <v>147.6630571217794</v>
       </c>
       <c r="U13" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>114.9322208041654</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>107.7122866515517</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>30.06830131405845</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2476,7 +2476,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C25" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D25" t="n">
         <v>124.3308255261727</v>
@@ -2485,16 +2485,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F25" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G25" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H25" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808293</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S25" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T25" t="n">
         <v>193.1208028352486</v>
@@ -2539,7 +2539,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X25" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y25" t="n">
         <v>194.3000058600551</v>
@@ -2713,13 +2713,13 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065884</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652629</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652545</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652551</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972057</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317882</v>
@@ -3907,7 +3907,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
         <v>141.2394908002292</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808202</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2611.877427644595</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2393.242760616658</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2139.480975254749</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2139.480975254749</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2139.480975254749</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2139.480975254749</v>
+        <v>1216.470406458542</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>826.3310744827304</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,10 +4410,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022.963088632153</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C4" t="n">
-        <v>2022.963088632153</v>
+        <v>438.0702322561244</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.963088632153</v>
+        <v>287.9535928437887</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>140.0404992613956</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2654.295406835049</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>2364.878236798088</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>2136.888685900071</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>2022.963088632153</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>512.2786438284563</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>228.2778626358874</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>228.2778626358874</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X5" t="n">
-        <v>1289.01781586839</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y5" t="n">
-        <v>898.8784838925781</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4647,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.1394333084169</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>500.1394333084169</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>350.0227938960811</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>350.0227938960811</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>203.1328463981708</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>203.1328463981708</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>203.1328463981708</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4765,10 +4765,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>959.5129866402885</v>
+        <v>1498.518225097183</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>1498.518225097183</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2665.384227590729</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2489.206739904899</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2270.572072876962</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2016.810287515053</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>1685.747400171482</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W8" t="n">
-        <v>1332.978744901368</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X8" t="n">
-        <v>959.5129866402885</v>
+        <v>1498.518225097183</v>
       </c>
       <c r="Y8" t="n">
-        <v>959.5129866402885</v>
+        <v>1498.518225097183</v>
       </c>
     </row>
     <row r="9">
@@ -4890,13 +4890,13 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4999,13 +4999,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>603.2739732920446</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>382.4813941485145</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2316.676938649612</v>
+        <v>2318.229508727735</v>
       </c>
       <c r="C11" t="n">
         <v>1949.266991787324</v>
@@ -5039,19 +5039,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J11" t="n">
-        <v>422.5594898197622</v>
+        <v>373.3125385470848</v>
       </c>
       <c r="K11" t="n">
-        <v>892.189873607444</v>
+        <v>842.9429223347665</v>
       </c>
       <c r="L11" t="n">
-        <v>1511.709654113219</v>
+        <v>1462.462702840541</v>
       </c>
       <c r="M11" t="n">
-        <v>2232.714216052256</v>
+        <v>2183.467264779579</v>
       </c>
       <c r="N11" t="n">
-        <v>2969.999193969362</v>
+        <v>2920.752242696685</v>
       </c>
       <c r="O11" t="n">
         <v>3652.861230428501</v>
@@ -5069,22 +5069,22 @@
         <v>4605.365889165442</v>
       </c>
       <c r="T11" t="n">
-        <v>4404.156740844761</v>
+        <v>4405.709310922884</v>
       </c>
       <c r="U11" t="n">
-        <v>4150.71341156431</v>
+        <v>4152.265981642434</v>
       </c>
       <c r="V11" t="n">
-        <v>3819.650524220739</v>
+        <v>3821.203094298863</v>
       </c>
       <c r="W11" t="n">
-        <v>3466.881868950625</v>
+        <v>3468.434439028749</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.416110689545</v>
+        <v>3094.968680767669</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.276778713734</v>
+        <v>2704.829348791857</v>
       </c>
     </row>
     <row r="12">
@@ -5127,10 +5127,10 @@
         <v>1062.705720206928</v>
       </c>
       <c r="M12" t="n">
-        <v>1062.705720206928</v>
+        <v>1654.724074459055</v>
       </c>
       <c r="N12" t="n">
-        <v>1356.759402180614</v>
+        <v>1903.635877180809</v>
       </c>
       <c r="O12" t="n">
         <v>1903.635877180809</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.759438255509</v>
+        <v>633.4475540177689</v>
       </c>
       <c r="C13" t="n">
-        <v>847.8232553276018</v>
+        <v>633.4475540177689</v>
       </c>
       <c r="D13" t="n">
-        <v>697.7066159152661</v>
+        <v>633.4475540177689</v>
       </c>
       <c r="E13" t="n">
-        <v>549.793522332873</v>
+        <v>485.5344604353758</v>
       </c>
       <c r="F13" t="n">
-        <v>402.9035748349626</v>
+        <v>485.5344604353758</v>
       </c>
       <c r="G13" t="n">
-        <v>235.6893800095415</v>
+        <v>318.3202656099546</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>176.447548648385</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2429.380814232059</v>
       </c>
       <c r="S13" t="n">
-        <v>2429.380814232059</v>
+        <v>2246.210623970989</v>
       </c>
       <c r="T13" t="n">
-        <v>2225.68341684953</v>
+        <v>2097.056020817677</v>
       </c>
       <c r="U13" t="n">
-        <v>1936.607203164256</v>
+        <v>1807.979807132404</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.607203164256</v>
+        <v>1553.295318926517</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.190033127296</v>
+        <v>1263.878148889556</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.200482229278</v>
+        <v>1035.888597991539</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.407903085748</v>
+        <v>815.0960188480086</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5367,7 +5367,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.6905094135296</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.538274322277</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.121104285317</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.131553387299</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.338974243769</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5601,13 +5601,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,55 +5647,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.547769317909</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>593.6115863900021</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>593.6115863900021</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
         <v>2264.108249235165</v>
@@ -5713,10 +5713,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5747,31 +5747,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5838,13 +5838,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2416.591062050909</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2233.736227705813</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2233.736227705813</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1944.661001050011</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1689.976512844124</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1400.559342807163</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>951.7772127656159</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6075,10 +6075,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O24" t="n">
         <v>1896.176478190824</v>
@@ -6124,7 +6124,7 @@
         <v>926.9575315319323</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D25" t="n">
         <v>656.9646031150021</v>
@@ -6133,40 +6133,40 @@
         <v>533.5814564942652</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H25" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K25" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M25" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N25" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O25" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P25" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q25" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
         <v>2596.781734931273</v>
@@ -6312,19 +6312,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,22 +6361,22 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345481</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384025</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6549,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
         <v>1896.176478190825</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384016</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
         <v>898.2659412311323</v>
@@ -6643,10 +6643,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6689,10 +6689,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6880,13 +6880,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838285</v>
@@ -6895,10 +6895,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,16 +7090,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7126,19 +7126,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,10 +7345,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.79828551875</v>
@@ -7375,7 +7375,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7558,13 +7558,13 @@
         <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7585,16 +7585,16 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7728,25 +7728,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,7 +8456,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504503</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>49.74439522492673</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>49.74439522492685</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>144.4751686438919</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>277.4190334016638</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>105.7983120568583</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>105.7983120568554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.537044377342397</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.537044377341999</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>15.82157105405781</v>
+        <v>69.81893734098239</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>171.2522535850787</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>38.72167599501748</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>36.30694539606321</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -26314,10 +26314,10 @@
         <v>15897.72560895846</v>
       </c>
       <c r="C2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="D2" t="n">
         <v>20526.04424660708</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20526.04424660709</v>
       </c>
       <c r="E2" t="n">
         <v>20164.01570965307</v>
@@ -26332,19 +26332,19 @@
         <v>20178.66499225016</v>
       </c>
       <c r="I2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="K2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="L2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="N2" t="n">
         <v>20526.0442466071</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363175</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26399,13 +26399,13 @@
         <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363175</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95396.83018339491</v>
+        <v>95396.83018339486</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,22 +26424,22 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5759.938886718171</v>
+        <v>5759.938886718172</v>
       </c>
       <c r="F4" t="n">
+        <v>5067.592601670445</v>
+      </c>
+      <c r="G4" t="n">
         <v>5067.592601670437</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>5067.592601670438</v>
       </c>
-      <c r="H4" t="n">
-        <v>5067.592601670437</v>
-      </c>
       <c r="I4" t="n">
-        <v>13058.4518647639</v>
+        <v>13058.45186476389</v>
       </c>
       <c r="J4" t="n">
-        <v>13058.4518647639</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="K4" t="n">
         <v>13058.45186476391</v>
@@ -26448,16 +26448,16 @@
         <v>13058.45186476391</v>
       </c>
       <c r="M4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.45186476392</v>
       </c>
       <c r="N4" t="n">
         <v>13058.45186476392</v>
       </c>
       <c r="O4" t="n">
-        <v>13058.4518647639</v>
+        <v>13058.45186476389</v>
       </c>
       <c r="P4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.45186476392</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-752326.0618523903</v>
+        <v>-752788.8937161551</v>
       </c>
       <c r="C6" t="n">
         <v>-263397.5397445339</v>
@@ -26528,19 +26528,19 @@
         <v>-263397.5397445339</v>
       </c>
       <c r="E6" t="n">
-        <v>-1022893.291474139</v>
+        <v>-1022929.494327834</v>
       </c>
       <c r="F6" t="n">
-        <v>-93864.09504827829</v>
+        <v>-93898.83297371399</v>
       </c>
       <c r="G6" t="n">
-        <v>-86011.45743332739</v>
+        <v>-86046.19535876309</v>
       </c>
       <c r="H6" t="n">
-        <v>-86011.45743332739</v>
+        <v>-86046.19535876309</v>
       </c>
       <c r="I6" t="n">
-        <v>-115124.241465704</v>
+        <v>-115124.2414657039</v>
       </c>
       <c r="J6" t="n">
         <v>-272119.7426646652</v>
@@ -26558,10 +26558,10 @@
         <v>-115124.241465704</v>
       </c>
       <c r="O6" t="n">
-        <v>-95696.52347207213</v>
+        <v>-95696.52347207219</v>
       </c>
       <c r="P6" t="n">
-        <v>-95696.52347207221</v>
+        <v>-95696.52347207229</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26926,10 +26926,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>60.18450575631046</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27594,16 +27594,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>209.7124959824864</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>84.11211839036429</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>321.468579306131</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>32.46761504884702</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>127.1441366114013</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>23.0311877815929</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>102.1031945837915</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
   </sheetData>
@@ -31847,13 +31847,13 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N12" t="n">
-        <v>428.3656332688754</v>
+        <v>382.7677754386397</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>557.7961431982453</v>
@@ -32087,10 +32087,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N18" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>359.7096985496635</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>405.637736314577</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214699</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33269,13 +33269,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33509,16 +33509,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,13 +33743,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34223,7 +34223,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>333.9544784328825</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34448,28 +34448,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>316.6133175811573</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>369.1789913099997</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34778,13 +34778,13 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -35015,7 +35015,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,7 +35176,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060965</v>
@@ -35258,7 +35258,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35267,7 +35267,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>332.0634613856469</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K11" t="n">
         <v>474.3741250380625</v>
@@ -35422,7 +35422,7 @@
         <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>739.5040280119352</v>
       </c>
       <c r="P11" t="n">
         <v>553.8443926134828</v>
@@ -35495,13 +35495,13 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
-        <v>297.0239211855421</v>
+        <v>251.4260633553063</v>
       </c>
       <c r="O12" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>423.8217357839151</v>
@@ -35644,7 +35644,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35735,10 +35735,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>228.3679864663302</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36443,13 +36443,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312436</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071396</v>
@@ -36528,7 +36528,7 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P25" t="n">
         <v>319.9164207986647</v>
@@ -36680,13 +36680,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37157,16 +37157,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,13 +37391,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>191.358233988438</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,7 +37871,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>191.358233988438</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38096,28 +38096,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>174.479283659139</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>226.5827468655553</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
